--- a/review/xlsx/literature_survey.xlsx
+++ b/review/xlsx/literature_survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final_year_project\review\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529D16A-2863-448A-8A34-1839AD4AA6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0A9264-C3F5-48CD-9805-B4E7B861F5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,18 +153,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,118 +447,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052D72A-EA55-4BFD-9ED0-0D841E7244B6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2016</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2023</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2023</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2020</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
